--- a/Assement defect report.xlsx
+++ b/Assement defect report.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LALIT CHAVHAN\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9F53EEF-B898-496B-9CF3-949150B2DF64}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F56ED875-EEE1-488B-BCF8-C6427BB7C7C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{665D61F1-260B-40FC-90E1-06DEB0755326}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{665D61F1-260B-40FC-90E1-06DEB0755326}"/>
   </bookViews>
   <sheets>
     <sheet name="reel" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="26">
   <si>
     <t>Steps</t>
   </si>
@@ -103,6 +103,18 @@
   </si>
   <si>
     <t>fail</t>
+  </si>
+  <si>
+    <t>internet ,working website and browser</t>
+  </si>
+  <si>
+    <t>to make reel and save in draft after that you have saw your reel in draft and click on add from your device button after that can not add any device your reel</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1iBQ6xKtUeTosbFpmatPExn3X45h8rF6f/view?usp=share_link</t>
+  </si>
+  <si>
+    <t>To make reel</t>
   </si>
 </sst>
 </file>
@@ -183,17 +195,20 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -511,8 +526,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5E0B3771-F534-45CD-9251-4D4752CE841C}">
   <dimension ref="A1:L10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L2" sqref="L2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G2" sqref="G2:H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -528,7 +543,7 @@
     <col min="9" max="9" width="18.21875" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="15.109375" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="15.5546875" customWidth="1"/>
-    <col min="12" max="12" width="11" customWidth="1"/>
+    <col min="12" max="12" width="36" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="18" x14ac:dyDescent="0.35">
@@ -569,18 +584,20 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="129.6" x14ac:dyDescent="0.3">
-      <c r="A2" s="5">
-        <v>1</v>
-      </c>
-      <c r="B2" s="5"/>
+    <row r="2" spans="1:12" ht="144" x14ac:dyDescent="0.3">
+      <c r="A2" s="3">
+        <v>3</v>
+      </c>
+      <c r="B2" s="3">
+        <v>3</v>
+      </c>
       <c r="C2" s="5" t="s">
         <v>12</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E2" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="E2" s="3" t="s">
         <v>14</v>
       </c>
       <c r="F2" s="5" t="s">
@@ -593,15 +610,15 @@
         <v>17</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="K2" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="L2" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="L2" s="6" t="s">
         <v>21</v>
       </c>
     </row>
@@ -719,7 +736,7 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="K2" r:id="rId1" xr:uid="{0452829C-6CFB-4B5C-AD51-744EAD038A96}"/>
+    <hyperlink ref="K2" r:id="rId1" xr:uid="{647D2F46-40B5-48FD-B019-8B9FD60F34D3}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
@@ -728,12 +745,107 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{99F7798D-FF91-49D4-8A2E-3D9D6C0EA293}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:L2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="11" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="29.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.21875" customWidth="1"/>
+    <col min="5" max="5" width="11" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.6640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="18.21875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.5546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" ht="18" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" ht="129.6" x14ac:dyDescent="0.3">
+      <c r="A2" s="5">
+        <v>1</v>
+      </c>
+      <c r="B2" s="5">
+        <v>1</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="H2" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="K2" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="L2" s="5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="K2" r:id="rId1" xr:uid="{0452829C-6CFB-4B5C-AD51-744EAD038A96}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>